--- a/results/metric_df/HHL_metrics.xlsx
+++ b/results/metric_df/HHL_metrics.xlsx
@@ -582,7 +582,7 @@
         <v>2.239395704152249</v>
       </c>
       <c r="D4" t="n">
-        <v>1.6565</v>
+        <v>2.4784</v>
       </c>
       <c r="E4" t="n">
         <v>0.445</v>

--- a/results/metric_df/HHL_metrics.xlsx
+++ b/results/metric_df/HHL_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,35 +451,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>sum_SASA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>max_SASA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>flexibility</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>theta</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>conformation</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>monosaccharides</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>motifs</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>class</t>
         </is>
@@ -488,672 +498,288 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man</t>
+          <t>Man(a1-2)Man(a1-2)Man(a1-3)[Man(a1-2)Man(a1-3)[Man(a1-2)Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2033148129692481</v>
+        <v>-1.343616047127427</v>
       </c>
       <c r="C2" t="n">
-        <v>2.08353044532974</v>
+        <v>2.112871867249531</v>
       </c>
       <c r="D2" t="n">
-        <v>1.6246</v>
+        <v>6.338615601748595</v>
       </c>
       <c r="E2" t="n">
-        <v>0.437</v>
+        <v>2.251887232513918</v>
       </c>
       <c r="F2" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>['Man(a1-1)']</t>
-        </is>
+        <v>36.56924074074075</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.4133333333333333</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6.386666666666667</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>['Man']</t>
+          <t>['4C1', '4C1', '4C1']</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['Man(a1-2)', 'Man(a1-2)', 'Man(a1-2)']</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man</t>
+          <t>Man(a1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1973363185681507</v>
+        <v>-0.4836089535029483</v>
       </c>
       <c r="C3" t="n">
-        <v>2.134786255352474</v>
+        <v>2.3839475508278</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8988386875598152</v>
+        <v>7.151842652483401</v>
       </c>
       <c r="E3" t="n">
-        <v>0.438</v>
+        <v>2.456060678658576</v>
       </c>
       <c r="F3" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>['Man(a1-1)']</t>
-        </is>
+        <v>18.39985714285714</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.4613333333333333</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.223333333333333</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>['Man']</t>
+          <t>['4C1', '4C1', '4C1']</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['Man(a1-2)', 'Man(a1-3)', 'Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>GlcA3S(b1-3)Gal(b1-4)GlcNAc(b1-2)Man</t>
+          <t>Man(a1-2)Man(a1-3)[Man(a1-6)]Man(a1-6)[Man(a1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2143904809401056</v>
+        <v>3.350820175078382</v>
       </c>
       <c r="C4" t="n">
-        <v>2.239395704152249</v>
+        <v>2.230768577129615</v>
       </c>
       <c r="D4" t="n">
-        <v>2.4784</v>
+        <v>6.692305731388845</v>
       </c>
       <c r="E4" t="n">
-        <v>0.445</v>
+        <v>2.423617038821429</v>
       </c>
       <c r="F4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>['Man(a1-1)']</t>
-        </is>
+        <v>26.47798333333334</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.439</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.8</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>['Man']</t>
+          <t>['4C1', '4C1', '4C1']</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['Man(a1-2)', 'Man(a1-6)', 'Man(a1-2)']</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)Man</t>
+          <t>Man(a1-3)[Man(a1-6)]Man(a1-6)[Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7337688877443442</v>
+        <v>3.460964068987905</v>
       </c>
       <c r="C5" t="n">
-        <v>2.109576157163365</v>
+        <v>2.492866163715956</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>7.478598491147868</v>
       </c>
       <c r="E5" t="n">
-        <v>0.457</v>
+        <v>2.575386834662778</v>
       </c>
       <c r="F5" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>['Man(a1-1)']</t>
-        </is>
+        <v>14.98801784940399</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6.350000000000001</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>['Man']</t>
+          <t>['4C1', '4C1', '4C1']</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['Man(a1-3)', 'Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.22726773591387</v>
+        <v>4.217364855037231</v>
       </c>
       <c r="C6" t="n">
-        <v>3.035335981636308</v>
+        <v>2.66305373505464</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>5.32610747010928</v>
       </c>
       <c r="E6" t="n">
-        <v>0.434</v>
+        <v>2.76768229887049</v>
       </c>
       <c r="F6" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>['Man(a1-1)']</t>
-        </is>
+        <v>9.62791</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9.379999999999999</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>['Man']</t>
+          <t>['4C1', '4C1']</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['Man(a1-3)', 'Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-2)Man(a1-2)Man(a1-3)[Man(a1-2)Man(a1-3)[Man(a1-2)Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.343616047127427</v>
+        <v>6.071172293273899</v>
       </c>
       <c r="C7" t="n">
-        <v>2.112871867249531</v>
+        <v>2.612142753164796</v>
       </c>
       <c r="D7" t="n">
-        <v>36.56924074074075</v>
+        <v>5.224285506329593</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4133333333333333</v>
+        <v>2.637590683923242</v>
       </c>
       <c r="F7" t="n">
-        <v>6.386666666666667</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>['Man(a1-2)', 'Man(a1-2)', 'Man(a1-2)']</t>
-        </is>
+        <v>8.1526</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9.369999999999999</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>['Man']</t>
+          <t>['4C1', '4C1']</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>['Man(a1-3)', 'Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Man(a1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.4836089535029483</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.3839475508278</v>
-      </c>
-      <c r="D8" t="n">
-        <v>18.39985714285714</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.4613333333333333</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6.223333333333333</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>['Man(a1-2)', 'Man(a1-3)', 'Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>['Man']</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Man(a1-2)Man(a1-3)[Man(a1-6)]Man(a1-6)[Man(a1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3.350820175078382</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.230768577129615</v>
-      </c>
-      <c r="D9" t="n">
-        <v>26.47798333333334</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.439</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>['Man(a1-2)', 'Man(a1-6)', 'Man(a1-2)']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>['Man']</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Man(a1-3)[Man(a1-6)]Man(a1-6)[Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3.460964068987905</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.492866163715956</v>
-      </c>
-      <c r="D10" t="n">
-        <v>14.98801784940399</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.418</v>
-      </c>
-      <c r="F10" t="n">
-        <v>6.350000000000001</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)', 'Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>['Man']</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4.217364855037231</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.66305373505464</v>
-      </c>
-      <c r="D11" t="n">
-        <v>9.62791</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="F11" t="n">
-        <v>9.379999999999999</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)', 'Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>['Man']</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6.071172293273899</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.612142753164796</v>
-      </c>
-      <c r="D12" t="n">
-        <v>8.1526</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.392</v>
-      </c>
-      <c r="F12" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)', 'Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>['Man']</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-1.246602721780573</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.59375597178801</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.2245</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.464</v>
-      </c>
-      <c r="F13" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>['Man(b1-4)']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>['Man']</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Neu5Ac(a2-3)Gal(b1-3)GlcNAc(b1-2)Man</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>-0.1958876137667394</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.150703515506221</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3.09165</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.418</v>
-      </c>
-      <c r="F14" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>['Man(a1-1)']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>['Man']</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>-0.1848771090041087</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.104820493646187</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.7261</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.473</v>
-      </c>
-      <c r="F15" t="n">
-        <v>11.49</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>['Man(a1-1)']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>['Man']</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-2)Man</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>-0.2011451833953509</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.198162813097914</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2.0887</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.447</v>
-      </c>
-      <c r="F16" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>['Man(a1-1)']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>['Man']</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-0.2118971844126464</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.153423715358099</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3.6008</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.443</v>
-      </c>
-      <c r="F17" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>['Man(a1-1)']</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>['Man']</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>O</t>
         </is>
       </c>
     </row>

--- a/results/metric_df/HHL_metrics.xlsx
+++ b/results/metric_df/HHL_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SASA</t>
+          <t>monosaccharides</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>sum_SASA</t>
+          <t>motifs</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>max_SASA</t>
+          <t>sasa</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,32 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>theta</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>conformation</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>monosaccharides</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>motifs</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>class</t>
+          <t>has_multi_node_motifs</t>
         </is>
       </c>
     </row>
@@ -504,283 +479,256 @@
       <c r="B2" t="n">
         <v>-1.343616047127427</v>
       </c>
-      <c r="C2" t="n">
-        <v>2.112871867249531</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['Man(a1-2)', 'Man(a1-2)', 'Man(a1-2)']</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>6.338615601748595</v>
       </c>
-      <c r="E2" t="n">
-        <v>2.251887232513918</v>
-      </c>
       <c r="F2" t="n">
-        <v>36.56924074074075</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.4133333333333333</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6.386666666666667</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>['Man(a1-2)', 'Man(a1-2)', 'Man(a1-2)']</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>['Man(a1-?)']</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>11.45818660281608</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Man(a1-2)Man(a1-3)[Man(a1-2)Man(a1-6)]Man(a1-6)[Man(a1-2)Man(a1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.4836089535029483</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.3839475508278</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.151842652483401</v>
+        <v>0.2929264709571163</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['Man(a1-2)', 'Man(a1-2)', 'Man(a1-2)']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>2.456060678658576</v>
+        <v>6.338615601748595</v>
       </c>
       <c r="F3" t="n">
-        <v>18.39985714285714</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.4613333333333333</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6.223333333333333</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>['Man(a1-2)', 'Man(a1-3)', 'Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>['Man(a1-?)']</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>11.45818660281608</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-2)Man(a1-3)[Man(a1-6)]Man(a1-6)[Man(a1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Man(a1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.350820175078382</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.230768577129615</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.692305731388845</v>
+        <v>-0.4836089535029483</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['Man(a1-2)', 'Man(a1-3)', 'Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>2.423617038821429</v>
+        <v>7.151842652483401</v>
       </c>
       <c r="F4" t="n">
-        <v>26.47798333333334</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.439</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>['Man(a1-2)', 'Man(a1-6)', 'Man(a1-2)']</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>['Man(a1-?)']</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>7.686933693909481</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-3)[Man(a1-6)]Man(a1-6)[Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Man(a1-2)Man(a1-3)[Man(a1-6)]Man(a1-6)[Man(a1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.460964068987905</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.492866163715956</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.478598491147868</v>
+        <v>3.350820175078382</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['Man(a1-2)', 'Man(a1-6)', 'Man(a1-2)']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>2.575386834662778</v>
+        <v>6.692305731388844</v>
       </c>
       <c r="F5" t="n">
-        <v>14.98801784940399</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.418</v>
-      </c>
-      <c r="H5" t="n">
-        <v>6.350000000000001</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)', 'Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>['Man(a1-?)']</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>9.955569251781256</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Man(a1-2)Man(a1-6)[Man(a1-3)]Man(a1-6)[Man(a1-2)Man(a1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.217364855037231</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.66305373505464</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.32610747010928</v>
+        <v>3.809277549744316</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['Man(a1-2)', 'Man(a1-2)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>2.76768229887049</v>
+        <v>7.238006874690403</v>
       </c>
       <c r="F6" t="n">
-        <v>9.62791</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9.379999999999999</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)', 'Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>['Man(a1-?)']</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>10.53727658869635</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>Man(a1-3)[Man(a1-6)]Man(a1-6)[Man(a1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.573397769674465</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['Man(a1-2)', 'Man(a1-3)', 'Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>7.151842652483401</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7.686933693909481</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Man(a1-3)[Man(a1-6)]Man(a1-6)[Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.460964068987905</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)', 'Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>7.478598491147867</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7.044260497873154</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.217364855037231</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)', 'Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>5.32610747010928</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.022265238600426</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
           <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B10" t="n">
         <v>6.071172293273899</v>
       </c>
-      <c r="C7" t="n">
-        <v>2.612142753164796</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)', 'Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>5.224285506329593</v>
       </c>
-      <c r="E7" t="n">
-        <v>2.637590683923242</v>
-      </c>
-      <c r="F7" t="n">
-        <v>8.1526</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.392</v>
-      </c>
-      <c r="H7" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)', 'Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>['Man(a1-?)']</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+      <c r="F10" t="n">
+        <v>2.91936252453667</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
